--- a/ЭиЗВ/Actual_KP/advanced_re_calc.xlsx
+++ b/ЭиЗВ/Actual_KP/advanced_re_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭиЗВ\Actual_KP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B88FB-7A51-4A4C-8073-5CC698D911D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95698C9D-1B10-407D-ABA9-4D608D68C26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="2415" windowWidth="23220" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>len</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>REF уклон</t>
+  </si>
+  <si>
+    <t>dtop</t>
   </si>
 </sst>
 </file>
@@ -209,18 +212,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -234,6 +225,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +520,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,15 +530,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -560,94 +563,99 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39.6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>19.8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="C6" s="3">
+        <f>C3-B11</f>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <f>$A$6*$B$6</f>
         <v>784.08</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
@@ -655,33 +663,33 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="A11" s="9">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10">
         <f>(($A$6*$B$6-$A$11*$B$6)*2)/($B$6+$B$11)</f>
-        <v>40.510344827586209</v>
-      </c>
-      <c r="D11" s="14">
+        <v>30.52960893854749</v>
+      </c>
+      <c r="D11" s="10">
         <f>(C11+A11)*B6-(C11*(B6-B11)/2)</f>
-        <v>784.08000000000015</v>
-      </c>
-      <c r="E11" s="14">
+        <v>784.08</v>
+      </c>
+      <c r="E11" s="10">
         <f>C11+A11</f>
-        <v>44.510344827586209</v>
-      </c>
-      <c r="F11" s="14">
+        <v>42.52960893854749</v>
+      </c>
+      <c r="F11" s="10">
         <f>((B6-B11)/C11 )*100</f>
-        <v>11.848825331971401</v>
-      </c>
-      <c r="G11" s="15">
+        <v>12.446933099107014</v>
+      </c>
+      <c r="G11" s="11">
         <f>ATAN((B6-B11)/C11)</f>
-        <v>0.11793837400615337</v>
-      </c>
-      <c r="I11" s="17">
+        <v>0.12383245559534323</v>
+      </c>
+      <c r="I11" s="13">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
